--- a/doc/regression-test/suites/legacy-security/02-quick-task.xlsx
+++ b/doc/regression-test/suites/legacy-security/02-quick-task.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\Dev\Propel\propel\doc\regression-test\suites\legacy-security\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3473E1-F8A3-453B-91C5-406AEF504824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A27C51B-573D-43ED-BB84-32D0F3260C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="10320" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <sheet name="04_SpecialConditions" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -88,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="128">
   <si>
     <t>Description</t>
   </si>
@@ -108,9 +107,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Not Executed</t>
-  </si>
-  <si>
     <t>Step Details</t>
   </si>
   <si>
@@ -171,9 +167,6 @@
     <t>Use /doc/test-scripts/test-remote.ps1 must be created before to start.</t>
   </si>
   <si>
-    <t>/doc/test-scripts/test-local-datetime.ps1 must be created before to start.</t>
-  </si>
-  <si>
     <t>Click in the Quick Task link in the navigation bar</t>
   </si>
   <si>
@@ -205,9 +198,6 @@
   </si>
   <si>
     <t>01_NoParams</t>
-  </si>
-  <si>
-    <t>Testing the execution of scripts with parameters that are required and can be null. Empty or must have a value.</t>
   </si>
   <si>
     <t>Target</t>
@@ -260,9 +250,6 @@
   </si>
   <si>
     <t>Check Literal params</t>
-  </si>
-  <si>
-    <t>Check the parameter named "$HashTableParam". It must have below the text box a legend indicating the vaklue is a literal value and will be passed "as is" to the script.</t>
   </si>
   <si>
     <t>Choose the right value for each parameter. For the literal parameter named "$HashTableParam", set the following value:
@@ -361,13 +348,6 @@
   <si>
     <t>The targets dropdown below is now enabled.
 There is set of parameters below and the run button is below them disabled.</t>
-  </si>
-  <si>
-    <t>Select 2 target in the Targets dropdown.
-Also set the following values for the parameters:
-$ResultType: JSON
-$TotalResults: 10
-$ColumnCount: 5</t>
   </si>
   <si>
     <t>You are able to set those values and now the Run button is enabled</t>
@@ -499,6 +479,55 @@
   </si>
   <si>
     <t>04_SpecialConditions</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">/doc/test-scripts/test-local-datetime.ps1 must be created before to start.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>IMPORTANT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>: When you upload this script ensure to set the "Is targetting…" value to "Services". In this way the script will be invoked in the local computer.</t>
+    </r>
+  </si>
+  <si>
+    <t>Testing the execution of scripts with parameters that are required and can be Null, Empty or must have a value.</t>
+  </si>
+  <si>
+    <t>Check the parameter named "$HashTableParam". It must have below the text box a legend indicating the value is a literal value and will be passed "as is" to the script.</t>
+  </si>
+  <si>
+    <t>Select 2 valid targets in the Targets dropdown.
+Also set the following values for the parameters:
+$ResultType: JSON
+$TotalResults: 10
+$ColumnCount: 5</t>
+  </si>
+  <si>
+    <t>You are redirected to the Run page were the execution takes a few seconds.
+After that you are redirected to the Results page that is displaying the execution results.</t>
+  </si>
+  <si>
+    <t>You are redirected to the Run page were the execution takes a few seconds. Then you are redirected to the Results page that is displaying the execution results.</t>
+  </si>
+  <si>
+    <t>Not Executed</t>
   </si>
 </sst>
 </file>
@@ -508,7 +537,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -578,6 +607,14 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -882,376 +919,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="88">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1826F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1826F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1826F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1826F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1826F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1826F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1826F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1826F"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="80">
     <dxf>
       <font>
         <b val="0"/>
@@ -1570,6 +1238,73 @@
       <font>
         <b val="0"/>
         <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF1826F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF1826F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
@@ -1882,6 +1617,73 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF1826F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF1826F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2196,6 +1998,73 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF1826F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF1826F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2507,6 +2376,73 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF1826F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF1826F"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3684,11 +3620,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4408209C-EE48-4EDD-81CA-828422C6913B}" name="Summary" displayName="Summary" ref="A1:B5" totalsRowShown="0" headerRowDxfId="87" headerRowBorderDxfId="86" tableBorderDxfId="85" totalsRowBorderDxfId="84">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4408209C-EE48-4EDD-81CA-828422C6913B}" name="Summary" displayName="Summary" ref="A1:B5" totalsRowShown="0" headerRowDxfId="79" headerRowBorderDxfId="78" tableBorderDxfId="77" totalsRowBorderDxfId="76">
   <autoFilter ref="A1:B5" xr:uid="{4408209C-EE48-4EDD-81CA-828422C6913B}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{654C6343-7B3C-42FE-9EF4-7BFE7BE35779}" name="Test Case Sheet name" dataDxfId="83"/>
-    <tableColumn id="2" xr3:uid="{FDA0E746-B4F2-405E-8A1D-9A6A22073CB9}" name="Result" dataDxfId="82">
+    <tableColumn id="1" xr3:uid="{654C6343-7B3C-42FE-9EF4-7BFE7BE35779}" name="Test Case Sheet name" dataDxfId="75"/>
+    <tableColumn id="2" xr3:uid="{FDA0E746-B4F2-405E-8A1D-9A6A22073CB9}" name="Result" dataDxfId="74">
       <calculatedColumnFormula array="1">INDIRECT(A2&amp;"!E8")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3697,21 +3633,21 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{949BDB15-3C75-449C-B4C4-A2C0E485B5C0}" name="SummaryResults" displayName="SummaryResults" ref="D1:E4" totalsRowShown="0" headerRowDxfId="81" headerRowBorderDxfId="80" tableBorderDxfId="79" totalsRowBorderDxfId="78">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{949BDB15-3C75-449C-B4C4-A2C0E485B5C0}" name="SummaryResults" displayName="SummaryResults" ref="D1:E4" totalsRowShown="0" headerRowDxfId="73" headerRowBorderDxfId="72" tableBorderDxfId="71" totalsRowBorderDxfId="70">
   <autoFilter ref="D1:E4" xr:uid="{949BDB15-3C75-449C-B4C4-A2C0E485B5C0}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{5420B28C-70A3-47FD-BF8A-F016E4F7FA0F}" name="Summary Results" dataDxfId="77"/>
-    <tableColumn id="2" xr3:uid="{B0E66881-1E02-43BC-AA03-3C33769D1162}" name="Count" dataDxfId="76"/>
+    <tableColumn id="1" xr3:uid="{5420B28C-70A3-47FD-BF8A-F016E4F7FA0F}" name="Summary Results" dataDxfId="69"/>
+    <tableColumn id="2" xr3:uid="{B0E66881-1E02-43BC-AA03-3C33769D1162}" name="Count" dataDxfId="68"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D3E09E6-43C8-4788-BA0E-09F9C445D7D5}" name="SampleTestCase12" displayName="SampleTestCase12" ref="A10:F18" totalsRowShown="0" headerRowDxfId="75" dataDxfId="73" headerRowBorderDxfId="74" tableBorderDxfId="72" totalsRowBorderDxfId="71">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D3E09E6-43C8-4788-BA0E-09F9C445D7D5}" name="SampleTestCase12" displayName="SampleTestCase12" ref="A10:F18" totalsRowShown="0" headerRowDxfId="61" dataDxfId="59" headerRowBorderDxfId="60" tableBorderDxfId="58" totalsRowBorderDxfId="57">
   <autoFilter ref="A10:F18" xr:uid="{5E4571F6-B23A-41AD-A10C-A2AD2284AD4B}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -3721,21 +3657,21 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{28386F51-EA89-4E22-94FE-E643A1522C73}" name="Step#" dataDxfId="70">
+    <tableColumn id="1" xr3:uid="{28386F51-EA89-4E22-94FE-E643A1522C73}" name="Step#" dataDxfId="56">
       <calculatedColumnFormula>IF(ISNUMBER(A10), A10 +1, 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{AD88C9C6-DADE-45D0-A01C-3DD953458433}" name="Area" dataDxfId="69"/>
-    <tableColumn id="2" xr3:uid="{B02D9B2C-E852-4462-A564-81E53B5B365B}" name="Step Details" dataDxfId="68"/>
-    <tableColumn id="3" xr3:uid="{CDFDD06A-E36F-4E48-8FBC-00C2BA7A82BE}" name="Expected" dataDxfId="67"/>
-    <tableColumn id="4" xr3:uid="{6A3BB6D8-A91E-4A24-9EE4-7F664D029AC6}" name="Actual" dataDxfId="66"/>
-    <tableColumn id="5" xr3:uid="{965FEC3D-F8DD-479C-99AA-27E03D4F4B08}" name="Status" dataDxfId="65"/>
+    <tableColumn id="6" xr3:uid="{AD88C9C6-DADE-45D0-A01C-3DD953458433}" name="Area" dataDxfId="55"/>
+    <tableColumn id="2" xr3:uid="{B02D9B2C-E852-4462-A564-81E53B5B365B}" name="Step Details" dataDxfId="54"/>
+    <tableColumn id="3" xr3:uid="{CDFDD06A-E36F-4E48-8FBC-00C2BA7A82BE}" name="Expected" dataDxfId="53"/>
+    <tableColumn id="4" xr3:uid="{6A3BB6D8-A91E-4A24-9EE4-7F664D029AC6}" name="Actual" dataDxfId="52"/>
+    <tableColumn id="5" xr3:uid="{965FEC3D-F8DD-479C-99AA-27E03D4F4B08}" name="Status" dataDxfId="51"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FA9F3945-3FE8-40D9-B133-F4403CC312A6}" name="SampleTestCase126" displayName="SampleTestCase126" ref="A10:F36" totalsRowShown="0" headerRowDxfId="64" dataDxfId="62" headerRowBorderDxfId="63" tableBorderDxfId="61" totalsRowBorderDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FA9F3945-3FE8-40D9-B133-F4403CC312A6}" name="SampleTestCase126" displayName="SampleTestCase126" ref="A10:F36" totalsRowShown="0" headerRowDxfId="44" dataDxfId="42" headerRowBorderDxfId="43" tableBorderDxfId="41" totalsRowBorderDxfId="40">
   <autoFilter ref="A10:F36" xr:uid="{5E4571F6-B23A-41AD-A10C-A2AD2284AD4B}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -3745,21 +3681,21 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{E8A97239-169E-4A73-8653-5ACF0D9B1175}" name="Step#" dataDxfId="59">
+    <tableColumn id="1" xr3:uid="{E8A97239-169E-4A73-8653-5ACF0D9B1175}" name="Step#" dataDxfId="39">
       <calculatedColumnFormula>IF(ISNUMBER(A10), A10 +1, 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{D8D90FF2-640F-4324-9A40-081398A41EC2}" name="Area" dataDxfId="58"/>
-    <tableColumn id="2" xr3:uid="{836B1EE4-794F-48F7-A699-C2531995E2E8}" name="Step Details" dataDxfId="57"/>
-    <tableColumn id="3" xr3:uid="{B491C827-BBA1-414C-B10B-CEBFC6CADBC5}" name="Expected" dataDxfId="56"/>
-    <tableColumn id="4" xr3:uid="{10CE080F-69DA-4468-9867-4B6234A14681}" name="Actual" dataDxfId="55"/>
-    <tableColumn id="5" xr3:uid="{E436DEA7-EE90-4F95-B2CD-1B021831A84C}" name="Status" dataDxfId="54"/>
+    <tableColumn id="6" xr3:uid="{D8D90FF2-640F-4324-9A40-081398A41EC2}" name="Area" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{836B1EE4-794F-48F7-A699-C2531995E2E8}" name="Step Details" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{B491C827-BBA1-414C-B10B-CEBFC6CADBC5}" name="Expected" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{10CE080F-69DA-4468-9867-4B6234A14681}" name="Actual" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{E436DEA7-EE90-4F95-B2CD-1B021831A84C}" name="Status" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BA62B11F-F19F-4957-B1C4-30ABF05EF0A5}" name="SampleTestCase123" displayName="SampleTestCase123" ref="A10:F35" totalsRowShown="0" headerRowDxfId="53" dataDxfId="51" headerRowBorderDxfId="52" tableBorderDxfId="50" totalsRowBorderDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BA62B11F-F19F-4957-B1C4-30ABF05EF0A5}" name="SampleTestCase123" displayName="SampleTestCase123" ref="A10:F35" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26" tableBorderDxfId="24" totalsRowBorderDxfId="23">
   <autoFilter ref="A10:F35" xr:uid="{5E4571F6-B23A-41AD-A10C-A2AD2284AD4B}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -3769,21 +3705,21 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{249BD8E3-A61D-4868-B812-94053F416EAC}" name="Step#" dataDxfId="48">
+    <tableColumn id="1" xr3:uid="{249BD8E3-A61D-4868-B812-94053F416EAC}" name="Step#" dataDxfId="22">
       <calculatedColumnFormula>IF(ISNUMBER(A10), A10 +1, 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{10F217A6-2830-4104-A6F1-0DF56499B255}" name="Area" dataDxfId="47"/>
-    <tableColumn id="2" xr3:uid="{EF6C2D64-AC7E-4844-8166-E771B3DBDE67}" name="Step Details" dataDxfId="46"/>
-    <tableColumn id="3" xr3:uid="{169B6607-676F-4268-BC28-4D5F1235898A}" name="Expected" dataDxfId="45"/>
-    <tableColumn id="4" xr3:uid="{708E7CA2-62CC-416B-96FB-C802DB79B760}" name="Actual" dataDxfId="44"/>
-    <tableColumn id="5" xr3:uid="{68996803-274C-4057-80BF-BCFEA4BFC778}" name="Status" dataDxfId="43"/>
+    <tableColumn id="6" xr3:uid="{10F217A6-2830-4104-A6F1-0DF56499B255}" name="Area" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{EF6C2D64-AC7E-4844-8166-E771B3DBDE67}" name="Step Details" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{169B6607-676F-4268-BC28-4D5F1235898A}" name="Expected" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{708E7CA2-62CC-416B-96FB-C802DB79B760}" name="Actual" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{68996803-274C-4057-80BF-BCFEA4BFC778}" name="Status" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{394E49CF-24EE-477B-84C0-433C834375D6}" name="SampleTestCase1237" displayName="SampleTestCase1237" ref="A10:F17" totalsRowShown="0" headerRowDxfId="42" dataDxfId="40" headerRowBorderDxfId="41" tableBorderDxfId="39" totalsRowBorderDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{394E49CF-24EE-477B-84C0-433C834375D6}" name="SampleTestCase1237" displayName="SampleTestCase1237" ref="A10:F17" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <autoFilter ref="A10:F17" xr:uid="{5E4571F6-B23A-41AD-A10C-A2AD2284AD4B}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -3793,14 +3729,14 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{A7269009-4D08-4C21-9E7B-1784CD73D3E7}" name="Step#" dataDxfId="37">
+    <tableColumn id="1" xr3:uid="{A7269009-4D08-4C21-9E7B-1784CD73D3E7}" name="Step#" dataDxfId="5">
       <calculatedColumnFormula>IF(ISNUMBER(A10), A10 +1, 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{05762F75-7DFD-4A4F-AD60-1E76ECA640B6}" name="Area" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{38CFCCCE-B457-4755-AEEA-14A350D19776}" name="Step Details" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{C3BFE986-F214-403F-AA81-25F54261C59D}" name="Expected" dataDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{AD3AF554-688F-4C5E-879E-D25A9CDCF612}" name="Actual" dataDxfId="33"/>
-    <tableColumn id="5" xr3:uid="{43660AE0-0B7A-4972-AE4A-78962705E209}" name="Status" dataDxfId="32"/>
+    <tableColumn id="6" xr3:uid="{05762F75-7DFD-4A4F-AD60-1E76ECA640B6}" name="Area" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{38CFCCCE-B457-4755-AEEA-14A350D19776}" name="Step Details" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{C3BFE986-F214-403F-AA81-25F54261C59D}" name="Expected" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{AD3AF554-688F-4C5E-879E-D25A9CDCF612}" name="Actual" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{43660AE0-0B7A-4972-AE4A-78962705E209}" name="Status" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4071,7 +4007,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1510635-E20C-4AD1-9756-3BB17945F573}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -4086,28 +4022,28 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>15</v>
-      </c>
       <c r="E1" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="B2" ca="1">INDIRECT(A2&amp;"!E8")</f>
         <v>Not Executed</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" s="5">
         <f ca="1">COUNTIF(Summary[Result],"Not Executed")</f>
@@ -4116,14 +4052,14 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B3" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="B3" ca="1">INDIRECT(A3&amp;"!E8")</f>
         <v>Not Executed</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="5">
         <f ca="1">COUNTIF(Summary[Result],"Pass")</f>
@@ -4132,14 +4068,14 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B4" s="9" t="str" cm="1">
         <f t="array" aca="1" ref="B4" ca="1">INDIRECT(A4&amp;"!E8")</f>
         <v>Not Executed</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">COUNTIF(Summary[Result],"Fail")</f>
@@ -4148,7 +4084,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B5" s="9" t="str" cm="1">
         <f t="array" aca="1" ref="B5" ca="1">INDIRECT(A5&amp;"!E8")</f>
@@ -4171,8 +4107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D215E9-B302-441A-A0B0-4EC6D3FC68F0}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4195,7 +4131,7 @@
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -4211,21 +4147,21 @@
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="26"/>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="5">
         <f>COUNTIF(SampleTestCase12[Status], "Not Executed")</f>
@@ -4236,16 +4172,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>27</v>
+        <v>121</v>
       </c>
       <c r="C6" s="26"/>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="5">
         <f>COUNTIF(SampleTestCase12[Status], "Pass")</f>
@@ -4258,14 +4194,14 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C7" s="26"/>
       <c r="D7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" s="5">
         <f>COUNTIF(SampleTestCase12[Status], "Fail")</f>
@@ -4281,7 +4217,7 @@
       <c r="B8" s="27"/>
       <c r="C8" s="26"/>
       <c r="D8" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" s="28" t="str">
         <f>IF(E7&gt;0, "Fail",
@@ -4296,10 +4232,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>3</v>
@@ -4317,17 +4253,17 @@
         <v>1</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>20</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>21</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="4" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -4336,17 +4272,17 @@
         <v>2</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="4" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -4355,17 +4291,17 @@
         <v>3</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="4" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -4374,17 +4310,17 @@
         <v>4</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="4" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -4393,17 +4329,17 @@
         <v>5</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="4" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -4412,17 +4348,17 @@
         <v>6</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="4" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="52" x14ac:dyDescent="0.35">
@@ -4431,17 +4367,17 @@
         <v>7</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="4" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -4450,17 +4386,17 @@
         <v>8</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="4" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -4474,28 +4410,28 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="F11:F18">
-    <cfRule type="expression" dxfId="31" priority="3">
+    <cfRule type="expression" dxfId="67" priority="3">
       <formula>$F11="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="6">
+    <cfRule type="expression" dxfId="66" priority="4">
       <formula>$F11="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="expression" dxfId="29" priority="1">
+    <cfRule type="expression" dxfId="65" priority="1">
       <formula>$E$8="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="2">
+    <cfRule type="expression" dxfId="64" priority="2">
       <formula>$E$8="Fail"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:F18">
-    <cfRule type="expression" dxfId="27" priority="5">
+  <conditionalFormatting sqref="A11:E18">
+    <cfRule type="expression" dxfId="63" priority="6">
       <formula>AND($B11&lt;&gt;$B10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B18">
-    <cfRule type="expression" dxfId="26" priority="4">
+    <cfRule type="expression" dxfId="62" priority="5">
       <formula>AND($B11&lt;&gt;$B10)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4517,7 +4453,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="F11" sqref="F11:F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4540,7 +4476,7 @@
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="24" t="s">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -4556,21 +4492,21 @@
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C5" s="26"/>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="5">
         <f>COUNTIF(SampleTestCase126[Status], "Not Executed")</f>
@@ -4583,14 +4519,14 @@
     </row>
     <row r="6" spans="1:6" ht="26" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C6" s="26"/>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="5">
         <f>COUNTIF(SampleTestCase126[Status], "Pass")</f>
@@ -4603,14 +4539,14 @@
     </row>
     <row r="7" spans="1:6" ht="26" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C7" s="26"/>
       <c r="D7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" s="5">
         <f>COUNTIF(SampleTestCase126[Status], "Fail")</f>
@@ -4623,14 +4559,14 @@
     </row>
     <row r="8" spans="1:6" ht="26" x14ac:dyDescent="0.35">
       <c r="A8" s="18" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C8" s="26"/>
       <c r="D8" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" s="28" t="str">
         <f>IF(E7&gt;0, "Fail",
@@ -4645,10 +4581,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>3</v>
@@ -4666,17 +4602,17 @@
         <v>1</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>20</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>21</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="4" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -4685,17 +4621,17 @@
         <v>2</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="4" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -4704,17 +4640,17 @@
         <v>3</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="4" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -4723,17 +4659,17 @@
         <v>4</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="4" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="52" x14ac:dyDescent="0.35">
@@ -4742,17 +4678,17 @@
         <v>5</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="4" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="65" x14ac:dyDescent="0.35">
@@ -4761,17 +4697,17 @@
         <v>6</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="4" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -4780,17 +4716,17 @@
         <v>7</v>
       </c>
       <c r="B17" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>50</v>
-      </c>
       <c r="D17" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E17" s="19"/>
       <c r="F17" s="4" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="130" x14ac:dyDescent="0.35">
@@ -4799,17 +4735,17 @@
         <v>8</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E18" s="19"/>
       <c r="F18" s="4" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -4818,17 +4754,17 @@
         <v>9</v>
       </c>
       <c r="B19" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>50</v>
-      </c>
       <c r="D19" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="4" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="52" x14ac:dyDescent="0.35">
@@ -4837,17 +4773,17 @@
         <v>10</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>57</v>
+        <v>123</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="4" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="52" x14ac:dyDescent="0.35">
@@ -4856,17 +4792,17 @@
         <v>11</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E21" s="19"/>
       <c r="F21" s="4" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -4875,17 +4811,17 @@
         <v>12</v>
       </c>
       <c r="B22" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="16" t="s">
-        <v>50</v>
-      </c>
       <c r="D22" s="10" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E22" s="19"/>
       <c r="F22" s="4" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -4894,17 +4830,17 @@
         <v>13</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E23" s="19"/>
       <c r="F23" s="4" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -4913,17 +4849,17 @@
         <v>14</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E24" s="19"/>
       <c r="F24" s="4" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -4932,17 +4868,17 @@
         <v>15</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E25" s="19"/>
       <c r="F25" s="4" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -4951,17 +4887,17 @@
         <v>16</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E26" s="19"/>
       <c r="F26" s="4" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="52" x14ac:dyDescent="0.35">
@@ -4970,17 +4906,17 @@
         <v>17</v>
       </c>
       <c r="B27" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="10" t="s">
         <v>60</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>64</v>
       </c>
       <c r="E27" s="19"/>
       <c r="F27" s="4" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="52" x14ac:dyDescent="0.35">
@@ -4989,17 +4925,17 @@
         <v>18</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E28" s="19"/>
       <c r="F28" s="4" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -5008,17 +4944,17 @@
         <v>19</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E29" s="19"/>
       <c r="F29" s="4" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -5027,17 +4963,17 @@
         <v>20</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E30" s="19"/>
       <c r="F30" s="4" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -5046,17 +4982,17 @@
         <v>21</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E31" s="19"/>
       <c r="F31" s="4" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -5065,17 +5001,17 @@
         <v>22</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E32" s="19"/>
       <c r="F32" s="4" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -5084,17 +5020,17 @@
         <v>23</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E33" s="19"/>
       <c r="F33" s="4" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="91" x14ac:dyDescent="0.35">
@@ -5103,17 +5039,17 @@
         <v>24</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E34" s="19"/>
       <c r="F34" s="4" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -5122,17 +5058,17 @@
         <v>25</v>
       </c>
       <c r="B35" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" s="10" t="s">
         <v>67</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>71</v>
       </c>
       <c r="E35" s="19"/>
       <c r="F35" s="4" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -5141,17 +5077,17 @@
         <v>26</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E36" s="19"/>
       <c r="F36" s="4" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -5164,54 +5100,29 @@
     <mergeCell ref="E8:F8"/>
   </mergeCells>
   <conditionalFormatting sqref="F11:F36">
-    <cfRule type="expression" dxfId="25" priority="4">
+    <cfRule type="expression" dxfId="50" priority="4">
       <formula>$F11="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="5">
+    <cfRule type="expression" dxfId="49" priority="5">
       <formula>$F11="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="expression" dxfId="23" priority="2">
+    <cfRule type="expression" dxfId="48" priority="2">
       <formula>$E$8="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="3">
+    <cfRule type="expression" dxfId="47" priority="3">
       <formula>$E$8="Fail"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:F11 B17 E17:F17 F17:F18 B20:F36 B12:F16 A12:A36">
-    <cfRule type="expression" dxfId="21" priority="7">
+  <conditionalFormatting sqref="A11:E36">
+    <cfRule type="expression" dxfId="46" priority="7">
       <formula>AND($B11&lt;&gt;$B10)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:B17 B20:B36">
-    <cfRule type="expression" dxfId="20" priority="6">
+  <conditionalFormatting sqref="B11:B36">
+    <cfRule type="expression" dxfId="45" priority="6">
       <formula>AND($B11&lt;&gt;$B10)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18:F18">
-    <cfRule type="expression" dxfId="19" priority="9">
-      <formula>AND($B18&lt;&gt;$B16)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18">
-    <cfRule type="expression" dxfId="18" priority="12">
-      <formula>AND($B18&lt;&gt;$B16)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19:F19">
-    <cfRule type="expression" dxfId="17" priority="17">
-      <formula>AND($B19&lt;&gt;$B16)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19">
-    <cfRule type="expression" dxfId="16" priority="18">
-      <formula>AND($B19&lt;&gt;$B16)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17:D17">
-    <cfRule type="expression" dxfId="15" priority="1">
-      <formula>AND($B17&lt;&gt;$B14)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -5232,7 +5143,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29:F35"/>
+      <selection activeCell="F11" sqref="F11:F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5255,7 +5166,7 @@
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="24" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -5271,21 +5182,21 @@
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C5" s="26"/>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="5">
         <f>COUNTIF(SampleTestCase123[Status], "Not Executed")</f>
@@ -5298,14 +5209,14 @@
     </row>
     <row r="6" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C6" s="26"/>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="5">
         <f>COUNTIF(SampleTestCase123[Status], "Pass")</f>
@@ -5321,7 +5232,7 @@
       <c r="B7" s="27"/>
       <c r="C7" s="26"/>
       <c r="D7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" s="5">
         <f>COUNTIF(SampleTestCase123[Status], "Fail")</f>
@@ -5337,7 +5248,7 @@
       <c r="B8" s="27"/>
       <c r="C8" s="26"/>
       <c r="D8" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" s="28" t="str">
         <f>IF(E7&gt;0, "Fail",
@@ -5352,10 +5263,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>3</v>
@@ -5373,17 +5284,17 @@
         <v>1</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>20</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>21</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="4" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -5392,17 +5303,17 @@
         <v>2</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="4" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -5411,17 +5322,17 @@
         <v>3</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="4" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="65" x14ac:dyDescent="0.35">
@@ -5430,17 +5341,17 @@
         <v>4</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="4" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="52" x14ac:dyDescent="0.35">
@@ -5449,17 +5360,17 @@
         <v>5</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="4" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="52" x14ac:dyDescent="0.35">
@@ -5468,17 +5379,17 @@
         <v>6</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="4" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -5487,17 +5398,17 @@
         <v>7</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="4" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -5506,17 +5417,17 @@
         <v>8</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="4" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -5525,17 +5436,17 @@
         <v>9</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E19" s="22"/>
       <c r="F19" s="4" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="78" x14ac:dyDescent="0.35">
@@ -5544,17 +5455,17 @@
         <v>10</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E20" s="22"/>
       <c r="F20" s="4" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -5563,17 +5474,17 @@
         <v>11</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E21" s="22"/>
       <c r="F21" s="4" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -5582,17 +5493,17 @@
         <v>12</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E22" s="22"/>
       <c r="F22" s="4" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -5601,17 +5512,17 @@
         <v>13</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C23" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" s="21" t="s">
         <v>99</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>104</v>
       </c>
       <c r="E23" s="22"/>
       <c r="F23" s="4" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -5620,17 +5531,17 @@
         <v>14</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E24" s="22"/>
       <c r="F24" s="4" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -5639,17 +5550,17 @@
         <v>15</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E25" s="19"/>
       <c r="F25" s="4" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -5658,17 +5569,17 @@
         <v>16</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E26" s="22"/>
       <c r="F26" s="4" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="52" x14ac:dyDescent="0.35">
@@ -5677,17 +5588,17 @@
         <v>17</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="E27" s="22"/>
       <c r="F27" s="4" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="52" x14ac:dyDescent="0.35">
@@ -5696,17 +5607,17 @@
         <v>18</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E28" s="22"/>
       <c r="F28" s="4" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="52" x14ac:dyDescent="0.35">
@@ -5715,17 +5626,17 @@
         <v>19</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E29" s="22"/>
       <c r="F29" s="4" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -5734,17 +5645,17 @@
         <v>20</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E30" s="22"/>
       <c r="F30" s="4" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -5753,17 +5664,17 @@
         <v>21</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E31" s="19"/>
       <c r="F31" s="4" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="52" x14ac:dyDescent="0.35">
@@ -5772,17 +5683,17 @@
         <v>22</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E32" s="19"/>
       <c r="F32" s="4" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="52" x14ac:dyDescent="0.35">
@@ -5791,17 +5702,17 @@
         <v>23</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="E33" s="19"/>
       <c r="F33" s="4" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="52" x14ac:dyDescent="0.35">
@@ -5810,17 +5721,17 @@
         <v>24</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E34" s="22"/>
       <c r="F34" s="4" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="143" x14ac:dyDescent="0.35">
@@ -5829,17 +5740,17 @@
         <v>25</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E35" s="22"/>
       <c r="F35" s="4" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -5852,34 +5763,29 @@
     <mergeCell ref="E8:F8"/>
   </mergeCells>
   <conditionalFormatting sqref="F11:F35">
-    <cfRule type="expression" dxfId="14" priority="4">
+    <cfRule type="expression" dxfId="33" priority="4">
       <formula>$F11="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="7">
+    <cfRule type="expression" dxfId="32" priority="5">
       <formula>$F11="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="expression" dxfId="12" priority="2">
+    <cfRule type="expression" dxfId="31" priority="2">
       <formula>$E$8="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="3">
+    <cfRule type="expression" dxfId="30" priority="3">
       <formula>$E$8="Fail"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:F35">
-    <cfRule type="expression" dxfId="10" priority="6">
+  <conditionalFormatting sqref="A11:E35">
+    <cfRule type="expression" dxfId="29" priority="7">
       <formula>AND($B11&lt;&gt;$B10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B35">
-    <cfRule type="expression" dxfId="9" priority="5">
+    <cfRule type="expression" dxfId="28" priority="6">
       <formula>AND($B11&lt;&gt;$B10)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24:D24">
-    <cfRule type="expression" dxfId="8" priority="1">
-      <formula>AND($B24&lt;&gt;$B23)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -5899,8 +5805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B0A4034-3B9B-4741-87DB-34D969B6CE96}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5923,7 +5829,7 @@
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="24" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -5939,25 +5845,25 @@
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C5" s="26"/>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="5">
         <f>COUNTIF(SampleTestCase1237[Status], "Not Executed")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F5" s="15">
         <f>E5/SUM(E$5:E$7)</f>
@@ -5966,14 +5872,14 @@
     </row>
     <row r="6" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C6" s="26"/>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="5">
         <f>COUNTIF(SampleTestCase1237[Status], "Pass")</f>
@@ -5989,7 +5895,7 @@
       <c r="B7" s="27"/>
       <c r="C7" s="26"/>
       <c r="D7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" s="5">
         <f>COUNTIF(SampleTestCase1237[Status], "Fail")</f>
@@ -6005,7 +5911,7 @@
       <c r="B8" s="27"/>
       <c r="C8" s="26"/>
       <c r="D8" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" s="28" t="str">
         <f>IF(E7&gt;0, "Fail",
@@ -6020,10 +5926,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>3</v>
@@ -6041,17 +5947,17 @@
         <v>1</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>20</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>21</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="4" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -6060,17 +5966,17 @@
         <v>2</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="4" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -6079,17 +5985,17 @@
         <v>3</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="4" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="78" x14ac:dyDescent="0.35">
@@ -6098,17 +6004,17 @@
         <v>4</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="4" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -6117,16 +6023,18 @@
         <v>5</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E15" s="19"/>
-      <c r="F15" s="4"/>
+      <c r="F15" s="4" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="52" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
@@ -6134,17 +6042,17 @@
         <v>6</v>
       </c>
       <c r="B16" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>122</v>
-      </c>
       <c r="D16" s="10" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="4" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="52" x14ac:dyDescent="0.35">
@@ -6153,17 +6061,17 @@
         <v>7</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="4" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -6176,39 +6084,29 @@
     <mergeCell ref="E8:F8"/>
   </mergeCells>
   <conditionalFormatting sqref="F11:F17">
-    <cfRule type="expression" dxfId="7" priority="4">
+    <cfRule type="expression" dxfId="16" priority="5">
       <formula>$F11="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="15" priority="4">
       <formula>$F11="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="14" priority="2">
       <formula>$E$8="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="3">
+    <cfRule type="expression" dxfId="13" priority="3">
       <formula>$E$8="Fail"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:F11 C17:F17 B12:F15 A12:A17">
-    <cfRule type="expression" dxfId="3" priority="6">
+  <conditionalFormatting sqref="B11:B17">
+    <cfRule type="expression" dxfId="12" priority="6">
       <formula>AND($B11&lt;&gt;$B10)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:B15">
-    <cfRule type="expression" dxfId="2" priority="5">
+  <conditionalFormatting sqref="A11:E17">
+    <cfRule type="expression" dxfId="11" priority="20">
       <formula>AND($B11&lt;&gt;$B10)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16:F16 B17">
-    <cfRule type="expression" dxfId="1" priority="20">
-      <formula>AND($B16&lt;&gt;$B14)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16:B17">
-    <cfRule type="expression" dxfId="0" priority="23">
-      <formula>AND($B16&lt;&gt;$B14)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">

--- a/doc/regression-test/suites/legacy-security/02-quick-task.xlsx
+++ b/doc/regression-test/suites/legacy-security/02-quick-task.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\Dev\Propel\propel\doc\regression-test\suites\legacy-security\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A27C51B-573D-43ED-BB84-32D0F3260C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77DE22C-8D7F-430A-8520-64182B652040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="10320" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="129">
   <si>
     <t>Description</t>
   </si>
@@ -150,9 +150,6 @@
   </si>
   <si>
     <t>Home Page is displayed.</t>
-  </si>
-  <si>
-    <t>Testing the execution of scripts that are targetting Servers as also targetting Services without parameters.</t>
   </si>
   <si>
     <t>Area</t>
@@ -528,6 +525,12 @@
   </si>
   <si>
     <t>Not Executed</t>
+  </si>
+  <si>
+    <t>The quick task is executed and after a few seconds you'll be redirected to the Results page</t>
+  </si>
+  <si>
+    <t>Testing the execution of scripts that are targetting Servers as also Services but without parameters.</t>
   </si>
 </sst>
 </file>
@@ -829,7 +832,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -879,9 +882,6 @@
     <xf numFmtId="1" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -895,9 +895,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -920,6 +917,274 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="80">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF1826F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF1826F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF1826F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF1826F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF1826F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF1826F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF1826F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF1826F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1238,73 +1503,6 @@
       <font>
         <b val="0"/>
         <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1826F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1826F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
@@ -1617,73 +1815,6 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1826F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1826F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1998,73 +2129,6 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1826F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1826F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2376,73 +2440,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1826F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1826F"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3647,7 +3644,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D3E09E6-43C8-4788-BA0E-09F9C445D7D5}" name="SampleTestCase12" displayName="SampleTestCase12" ref="A10:F18" totalsRowShown="0" headerRowDxfId="61" dataDxfId="59" headerRowBorderDxfId="60" tableBorderDxfId="58" totalsRowBorderDxfId="57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D3E09E6-43C8-4788-BA0E-09F9C445D7D5}" name="SampleTestCase12" displayName="SampleTestCase12" ref="A10:F18" totalsRowShown="0" headerRowDxfId="67" dataDxfId="65" headerRowBorderDxfId="66" tableBorderDxfId="64" totalsRowBorderDxfId="63">
   <autoFilter ref="A10:F18" xr:uid="{5E4571F6-B23A-41AD-A10C-A2AD2284AD4B}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -3657,21 +3654,21 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{28386F51-EA89-4E22-94FE-E643A1522C73}" name="Step#" dataDxfId="56">
+    <tableColumn id="1" xr3:uid="{28386F51-EA89-4E22-94FE-E643A1522C73}" name="Step#" dataDxfId="62">
       <calculatedColumnFormula>IF(ISNUMBER(A10), A10 +1, 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{AD88C9C6-DADE-45D0-A01C-3DD953458433}" name="Area" dataDxfId="55"/>
-    <tableColumn id="2" xr3:uid="{B02D9B2C-E852-4462-A564-81E53B5B365B}" name="Step Details" dataDxfId="54"/>
-    <tableColumn id="3" xr3:uid="{CDFDD06A-E36F-4E48-8FBC-00C2BA7A82BE}" name="Expected" dataDxfId="53"/>
-    <tableColumn id="4" xr3:uid="{6A3BB6D8-A91E-4A24-9EE4-7F664D029AC6}" name="Actual" dataDxfId="52"/>
-    <tableColumn id="5" xr3:uid="{965FEC3D-F8DD-479C-99AA-27E03D4F4B08}" name="Status" dataDxfId="51"/>
+    <tableColumn id="6" xr3:uid="{AD88C9C6-DADE-45D0-A01C-3DD953458433}" name="Area" dataDxfId="61"/>
+    <tableColumn id="2" xr3:uid="{B02D9B2C-E852-4462-A564-81E53B5B365B}" name="Step Details" dataDxfId="60"/>
+    <tableColumn id="3" xr3:uid="{CDFDD06A-E36F-4E48-8FBC-00C2BA7A82BE}" name="Expected" dataDxfId="59"/>
+    <tableColumn id="4" xr3:uid="{6A3BB6D8-A91E-4A24-9EE4-7F664D029AC6}" name="Actual" dataDxfId="58"/>
+    <tableColumn id="5" xr3:uid="{965FEC3D-F8DD-479C-99AA-27E03D4F4B08}" name="Status" dataDxfId="57"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FA9F3945-3FE8-40D9-B133-F4403CC312A6}" name="SampleTestCase126" displayName="SampleTestCase126" ref="A10:F36" totalsRowShown="0" headerRowDxfId="44" dataDxfId="42" headerRowBorderDxfId="43" tableBorderDxfId="41" totalsRowBorderDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FA9F3945-3FE8-40D9-B133-F4403CC312A6}" name="SampleTestCase126" displayName="SampleTestCase126" ref="A10:F36" totalsRowShown="0" headerRowDxfId="56" dataDxfId="54" headerRowBorderDxfId="55" tableBorderDxfId="53" totalsRowBorderDxfId="52">
   <autoFilter ref="A10:F36" xr:uid="{5E4571F6-B23A-41AD-A10C-A2AD2284AD4B}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -3681,21 +3678,21 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{E8A97239-169E-4A73-8653-5ACF0D9B1175}" name="Step#" dataDxfId="39">
+    <tableColumn id="1" xr3:uid="{E8A97239-169E-4A73-8653-5ACF0D9B1175}" name="Step#" dataDxfId="51">
       <calculatedColumnFormula>IF(ISNUMBER(A10), A10 +1, 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{D8D90FF2-640F-4324-9A40-081398A41EC2}" name="Area" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{836B1EE4-794F-48F7-A699-C2531995E2E8}" name="Step Details" dataDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{B491C827-BBA1-414C-B10B-CEBFC6CADBC5}" name="Expected" dataDxfId="36"/>
-    <tableColumn id="4" xr3:uid="{10CE080F-69DA-4468-9867-4B6234A14681}" name="Actual" dataDxfId="35"/>
-    <tableColumn id="5" xr3:uid="{E436DEA7-EE90-4F95-B2CD-1B021831A84C}" name="Status" dataDxfId="34"/>
+    <tableColumn id="6" xr3:uid="{D8D90FF2-640F-4324-9A40-081398A41EC2}" name="Area" dataDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{836B1EE4-794F-48F7-A699-C2531995E2E8}" name="Step Details" dataDxfId="49"/>
+    <tableColumn id="3" xr3:uid="{B491C827-BBA1-414C-B10B-CEBFC6CADBC5}" name="Expected" dataDxfId="48"/>
+    <tableColumn id="4" xr3:uid="{10CE080F-69DA-4468-9867-4B6234A14681}" name="Actual" dataDxfId="47"/>
+    <tableColumn id="5" xr3:uid="{E436DEA7-EE90-4F95-B2CD-1B021831A84C}" name="Status" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BA62B11F-F19F-4957-B1C4-30ABF05EF0A5}" name="SampleTestCase123" displayName="SampleTestCase123" ref="A10:F35" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26" tableBorderDxfId="24" totalsRowBorderDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BA62B11F-F19F-4957-B1C4-30ABF05EF0A5}" name="SampleTestCase123" displayName="SampleTestCase123" ref="A10:F35" totalsRowShown="0" headerRowDxfId="45" dataDxfId="43" headerRowBorderDxfId="44" tableBorderDxfId="42" totalsRowBorderDxfId="41">
   <autoFilter ref="A10:F35" xr:uid="{5E4571F6-B23A-41AD-A10C-A2AD2284AD4B}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -3705,21 +3702,21 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{249BD8E3-A61D-4868-B812-94053F416EAC}" name="Step#" dataDxfId="22">
+    <tableColumn id="1" xr3:uid="{249BD8E3-A61D-4868-B812-94053F416EAC}" name="Step#" dataDxfId="40">
       <calculatedColumnFormula>IF(ISNUMBER(A10), A10 +1, 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{10F217A6-2830-4104-A6F1-0DF56499B255}" name="Area" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{EF6C2D64-AC7E-4844-8166-E771B3DBDE67}" name="Step Details" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{169B6607-676F-4268-BC28-4D5F1235898A}" name="Expected" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{708E7CA2-62CC-416B-96FB-C802DB79B760}" name="Actual" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{68996803-274C-4057-80BF-BCFEA4BFC778}" name="Status" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{10F217A6-2830-4104-A6F1-0DF56499B255}" name="Area" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{EF6C2D64-AC7E-4844-8166-E771B3DBDE67}" name="Step Details" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{169B6607-676F-4268-BC28-4D5F1235898A}" name="Expected" dataDxfId="37"/>
+    <tableColumn id="4" xr3:uid="{708E7CA2-62CC-416B-96FB-C802DB79B760}" name="Actual" dataDxfId="36"/>
+    <tableColumn id="5" xr3:uid="{68996803-274C-4057-80BF-BCFEA4BFC778}" name="Status" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{394E49CF-24EE-477B-84C0-433C834375D6}" name="SampleTestCase1237" displayName="SampleTestCase1237" ref="A10:F17" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{394E49CF-24EE-477B-84C0-433C834375D6}" name="SampleTestCase1237" displayName="SampleTestCase1237" ref="A10:F17" totalsRowShown="0" headerRowDxfId="34" dataDxfId="32" headerRowBorderDxfId="33" tableBorderDxfId="31" totalsRowBorderDxfId="30">
   <autoFilter ref="A10:F17" xr:uid="{5E4571F6-B23A-41AD-A10C-A2AD2284AD4B}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -3729,14 +3726,14 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{A7269009-4D08-4C21-9E7B-1784CD73D3E7}" name="Step#" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{A7269009-4D08-4C21-9E7B-1784CD73D3E7}" name="Step#" dataDxfId="29">
       <calculatedColumnFormula>IF(ISNUMBER(A10), A10 +1, 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{05762F75-7DFD-4A4F-AD60-1E76ECA640B6}" name="Area" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{38CFCCCE-B457-4755-AEEA-14A350D19776}" name="Step Details" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{C3BFE986-F214-403F-AA81-25F54261C59D}" name="Expected" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{AD3AF554-688F-4C5E-879E-D25A9CDCF612}" name="Actual" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{43660AE0-0B7A-4972-AE4A-78962705E209}" name="Status" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{05762F75-7DFD-4A4F-AD60-1E76ECA640B6}" name="Area" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{38CFCCCE-B457-4755-AEEA-14A350D19776}" name="Step Details" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{C3BFE986-F214-403F-AA81-25F54261C59D}" name="Expected" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{AD3AF554-688F-4C5E-879E-D25A9CDCF612}" name="Actual" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{43660AE0-0B7A-4972-AE4A-78962705E209}" name="Status" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4036,7 +4033,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="B2" ca="1">INDIRECT(A2&amp;"!E8")</f>
@@ -4052,7 +4049,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="B3" ca="1">INDIRECT(A3&amp;"!E8")</f>
@@ -4068,7 +4065,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B4" s="9" t="str" cm="1">
         <f t="array" aca="1" ref="B4" ca="1">INDIRECT(A4&amp;"!E8")</f>
@@ -4084,7 +4081,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B5" s="9" t="str" cm="1">
         <f t="array" aca="1" ref="B5" ca="1">INDIRECT(A5&amp;"!E8")</f>
@@ -4107,8 +4104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D215E9-B302-441A-A0B0-4EC6D3FC68F0}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4130,14 +4127,14 @@
       <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="26"/>
+      <c r="A2" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -4153,13 +4150,13 @@
       <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="26"/>
+      <c r="A5" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="24"/>
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
@@ -4173,13 +4170,13 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="C6" s="26"/>
+      <c r="A6" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="24"/>
       <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
@@ -4193,13 +4190,13 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="26"/>
+      <c r="C7" s="24"/>
       <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
@@ -4213,18 +4210,18 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="18"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="26"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="24"/>
       <c r="D8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="28" t="str">
+      <c r="E8" s="26" t="str">
         <f>IF(E7&gt;0, "Fail",
     IF(E5&gt;0, "Not Executed", "Pass"))</f>
         <v>Not Executed</v>
       </c>
-      <c r="F8" s="28"/>
+      <c r="F8" s="26"/>
     </row>
     <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -4232,7 +4229,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>6</v>
@@ -4253,7 +4250,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>19</v>
@@ -4263,7 +4260,7 @@
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -4272,17 +4269,17 @@
         <v>2</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>27</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -4291,17 +4288,17 @@
         <v>3</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>28</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>29</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -4310,17 +4307,17 @@
         <v>4</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -4329,17 +4326,17 @@
         <v>5</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>31</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>32</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -4348,17 +4345,17 @@
         <v>6</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>27</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="52" x14ac:dyDescent="0.35">
@@ -4367,17 +4364,17 @@
         <v>7</v>
       </c>
       <c r="B17" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>35</v>
-      </c>
       <c r="D17" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -4386,17 +4383,17 @@
         <v>8</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -4409,30 +4406,30 @@
     <mergeCell ref="E8:F8"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="F11:F18">
-    <cfRule type="expression" dxfId="67" priority="3">
-      <formula>$F11="Fail"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="66" priority="4">
-      <formula>$F11="Pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="expression" dxfId="65" priority="1">
-      <formula>$E$8="Pass"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="64" priority="2">
-      <formula>$E$8="Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A11:E18">
-    <cfRule type="expression" dxfId="63" priority="6">
+    <cfRule type="expression" dxfId="23" priority="6">
       <formula>AND($B11&lt;&gt;$B10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B18">
-    <cfRule type="expression" dxfId="62" priority="5">
+    <cfRule type="expression" dxfId="22" priority="5">
       <formula>AND($B11&lt;&gt;$B10)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="expression" dxfId="21" priority="1">
+      <formula>$E$8="Pass"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="2">
+      <formula>$E$8="Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11:F18">
+    <cfRule type="expression" dxfId="19" priority="3">
+      <formula>$F11="Fail"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="4">
+      <formula>$F11="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -4452,7 +4449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A846E3D-9DF4-4E5B-9E5B-DA468DE36639}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="F11" sqref="F11:F36"/>
     </sheetView>
   </sheetViews>
@@ -4475,14 +4472,14 @@
       <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="26"/>
+      <c r="A2" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -4498,13 +4495,13 @@
       <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="26"/>
+      <c r="A5" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="24"/>
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
@@ -4518,13 +4515,13 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="26" x14ac:dyDescent="0.35">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="26"/>
+      <c r="C6" s="24"/>
       <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
@@ -4538,13 +4535,13 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="26" x14ac:dyDescent="0.35">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="26"/>
+      <c r="C7" s="24"/>
       <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
@@ -4558,22 +4555,22 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="26" x14ac:dyDescent="0.35">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="26"/>
+      <c r="C8" s="24"/>
       <c r="D8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="28" t="str">
+      <c r="E8" s="26" t="str">
         <f>IF(E7&gt;0, "Fail",
     IF(E5&gt;0, "Not Executed", "Pass"))</f>
         <v>Not Executed</v>
       </c>
-      <c r="F8" s="28"/>
+      <c r="F8" s="26"/>
     </row>
     <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -4581,7 +4578,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>6</v>
@@ -4602,7 +4599,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>19</v>
@@ -4612,7 +4609,7 @@
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -4621,17 +4618,17 @@
         <v>2</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>27</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -4640,17 +4637,17 @@
         <v>3</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>42</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>43</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -4659,17 +4656,17 @@
         <v>4</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>51</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>52</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="52" x14ac:dyDescent="0.35">
@@ -4678,17 +4675,17 @@
         <v>5</v>
       </c>
       <c r="B15" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="D15" s="10" t="s">
         <v>45</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>46</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="65" x14ac:dyDescent="0.35">
@@ -4697,17 +4694,17 @@
         <v>6</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -4716,17 +4713,17 @@
         <v>7</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="19"/>
+      <c r="E17" s="18"/>
       <c r="F17" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="130" x14ac:dyDescent="0.35">
@@ -4735,17 +4732,17 @@
         <v>8</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D18" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E18" s="19"/>
+      <c r="E18" s="18"/>
       <c r="F18" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -4754,17 +4751,17 @@
         <v>9</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>47</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>48</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="52" x14ac:dyDescent="0.35">
@@ -4773,17 +4770,17 @@
         <v>10</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="52" x14ac:dyDescent="0.35">
@@ -4792,17 +4789,17 @@
         <v>11</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="19"/>
+        <v>53</v>
+      </c>
+      <c r="E21" s="18"/>
       <c r="F21" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -4811,17 +4808,17 @@
         <v>12</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="19"/>
+        <v>54</v>
+      </c>
+      <c r="E22" s="18"/>
       <c r="F22" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -4830,17 +4827,17 @@
         <v>13</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" s="19"/>
+        <v>68</v>
+      </c>
+      <c r="E23" s="18"/>
       <c r="F23" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -4849,17 +4846,17 @@
         <v>14</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C24" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" s="19"/>
+      <c r="E24" s="18"/>
       <c r="F24" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -4868,17 +4865,17 @@
         <v>15</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" s="19"/>
+        <v>42</v>
+      </c>
+      <c r="E25" s="18"/>
       <c r="F25" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -4887,17 +4884,17 @@
         <v>16</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C26" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E26" s="19"/>
+      <c r="E26" s="18"/>
       <c r="F26" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="52" x14ac:dyDescent="0.35">
@@ -4906,17 +4903,17 @@
         <v>17</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E27" s="19"/>
+        <v>59</v>
+      </c>
+      <c r="E27" s="18"/>
       <c r="F27" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="52" x14ac:dyDescent="0.35">
@@ -4925,17 +4922,17 @@
         <v>18</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E28" s="19"/>
+        <v>53</v>
+      </c>
+      <c r="E28" s="18"/>
       <c r="F28" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -4944,17 +4941,17 @@
         <v>19</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E29" s="19"/>
+        <v>54</v>
+      </c>
+      <c r="E29" s="18"/>
       <c r="F29" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -4963,17 +4960,17 @@
         <v>20</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E30" s="19"/>
+        <v>68</v>
+      </c>
+      <c r="E30" s="18"/>
       <c r="F30" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -4982,17 +4979,17 @@
         <v>21</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D31" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E31" s="19"/>
+      <c r="E31" s="18"/>
       <c r="F31" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -5001,17 +4998,17 @@
         <v>22</v>
       </c>
       <c r="B32" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="16" t="s">
-        <v>64</v>
-      </c>
       <c r="D32" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E32" s="19"/>
+        <v>42</v>
+      </c>
+      <c r="E32" s="18"/>
       <c r="F32" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -5020,17 +5017,17 @@
         <v>23</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C33" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D33" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E33" s="19"/>
+      <c r="E33" s="18"/>
       <c r="F33" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="91" x14ac:dyDescent="0.35">
@@ -5039,17 +5036,17 @@
         <v>24</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E34" s="19"/>
+        <v>64</v>
+      </c>
+      <c r="E34" s="18"/>
       <c r="F34" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -5058,17 +5055,17 @@
         <v>25</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C35" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D35" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E35" s="19"/>
+      <c r="E35" s="18"/>
       <c r="F35" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -5077,17 +5074,17 @@
         <v>26</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E36" s="19"/>
+        <v>68</v>
+      </c>
+      <c r="E36" s="18"/>
       <c r="F36" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -5099,30 +5096,30 @@
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="E8:F8"/>
   </mergeCells>
-  <conditionalFormatting sqref="F11:F36">
-    <cfRule type="expression" dxfId="50" priority="4">
-      <formula>$F11="Fail"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="49" priority="5">
-      <formula>$F11="Pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="expression" dxfId="48" priority="2">
-      <formula>$E$8="Pass"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="47" priority="3">
-      <formula>$E$8="Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A11:E36">
-    <cfRule type="expression" dxfId="46" priority="7">
+    <cfRule type="expression" dxfId="17" priority="7">
       <formula>AND($B11&lt;&gt;$B10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B36">
-    <cfRule type="expression" dxfId="45" priority="6">
+    <cfRule type="expression" dxfId="16" priority="6">
       <formula>AND($B11&lt;&gt;$B10)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="expression" dxfId="15" priority="2">
+      <formula>$E$8="Pass"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="3">
+      <formula>$E$8="Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11:F36">
+    <cfRule type="expression" dxfId="13" priority="4">
+      <formula>$F11="Fail"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="5">
+      <formula>$F11="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -5142,7 +5139,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FE10AC0-0A1E-4CBB-A212-2760EFDA6A5A}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="F11" sqref="F11:F35"/>
     </sheetView>
   </sheetViews>
@@ -5165,14 +5162,14 @@
       <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="26"/>
+      <c r="A2" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -5188,13 +5185,13 @@
       <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" s="27" t="s">
+      <c r="A5" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="26"/>
+      <c r="B5" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="24"/>
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
@@ -5208,13 +5205,13 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="26"/>
+      <c r="A6" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="24"/>
       <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
@@ -5228,9 +5225,9 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="18"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="26"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="24"/>
       <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
@@ -5244,18 +5241,18 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="18"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="26"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="24"/>
       <c r="D8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="28" t="str">
+      <c r="E8" s="26" t="str">
         <f>IF(E7&gt;0, "Fail",
     IF(E5&gt;0, "Not Executed", "Pass"))</f>
         <v>Not Executed</v>
       </c>
-      <c r="F8" s="28"/>
+      <c r="F8" s="26"/>
     </row>
     <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -5263,7 +5260,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>6</v>
@@ -5284,7 +5281,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>19</v>
@@ -5294,7 +5291,7 @@
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -5303,17 +5300,17 @@
         <v>2</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C12" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>27</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -5322,17 +5319,17 @@
         <v>3</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C13" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>80</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>81</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="65" x14ac:dyDescent="0.35">
@@ -5341,17 +5338,17 @@
         <v>4</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="52" x14ac:dyDescent="0.35">
@@ -5360,17 +5357,17 @@
         <v>5</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="52" x14ac:dyDescent="0.35">
@@ -5379,17 +5376,17 @@
         <v>6</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C16" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>84</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>85</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -5398,17 +5395,17 @@
         <v>7</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -5417,17 +5414,17 @@
         <v>8</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -5436,17 +5433,17 @@
         <v>9</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="E19" s="22"/>
+        <v>96</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="21"/>
       <c r="F19" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="78" x14ac:dyDescent="0.35">
@@ -5455,17 +5452,17 @@
         <v>10</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="E20" s="22"/>
+        <v>99</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="21"/>
       <c r="F20" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -5474,17 +5471,17 @@
         <v>11</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C21" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="D21" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="E21" s="22"/>
+      <c r="E21" s="21"/>
       <c r="F21" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -5493,17 +5490,17 @@
         <v>12</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="E22" s="22"/>
+      <c r="D22" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="21"/>
       <c r="F22" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -5512,17 +5509,17 @@
         <v>13</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="D23" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="E23" s="22"/>
+      <c r="C23" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" s="21"/>
       <c r="F23" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -5531,17 +5528,17 @@
         <v>14</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C24" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" s="22"/>
+      <c r="E24" s="21"/>
       <c r="F24" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -5550,17 +5547,17 @@
         <v>15</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C25" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D25" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E25" s="19"/>
+      <c r="E25" s="18"/>
       <c r="F25" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -5569,17 +5566,17 @@
         <v>16</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="E26" s="22"/>
+        <v>105</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" s="21"/>
       <c r="F26" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="52" x14ac:dyDescent="0.35">
@@ -5588,17 +5585,17 @@
         <v>17</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="E27" s="22"/>
+        <v>105</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="E27" s="21"/>
       <c r="F27" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="52" x14ac:dyDescent="0.35">
@@ -5607,17 +5604,17 @@
         <v>18</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="D28" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="E28" s="22"/>
+        <v>105</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" s="21"/>
       <c r="F28" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="52" x14ac:dyDescent="0.35">
@@ -5626,17 +5623,17 @@
         <v>19</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C29" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D29" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="D29" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="E29" s="22"/>
+      <c r="E29" s="21"/>
       <c r="F29" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -5645,17 +5642,17 @@
         <v>20</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C30" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30" s="22"/>
+      <c r="E30" s="21"/>
       <c r="F30" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -5664,17 +5661,17 @@
         <v>21</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C31" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D31" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E31" s="19"/>
+      <c r="E31" s="18"/>
       <c r="F31" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="52" x14ac:dyDescent="0.35">
@@ -5683,17 +5680,17 @@
         <v>22</v>
       </c>
       <c r="B32" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="C32" s="17" t="s">
-        <v>108</v>
-      </c>
       <c r="D32" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="E32" s="19"/>
+        <v>81</v>
+      </c>
+      <c r="E32" s="18"/>
       <c r="F32" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="52" x14ac:dyDescent="0.35">
@@ -5702,17 +5699,17 @@
         <v>23</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>31</v>
+        <v>106</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>30</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="E33" s="19"/>
+        <v>125</v>
+      </c>
+      <c r="E33" s="18"/>
       <c r="F33" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="52" x14ac:dyDescent="0.35">
@@ -5721,17 +5718,17 @@
         <v>24</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="D34" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="E34" s="22"/>
+        <v>106</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E34" s="21"/>
       <c r="F34" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="143" x14ac:dyDescent="0.35">
@@ -5740,17 +5737,17 @@
         <v>25</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C35" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D35" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="D35" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="E35" s="22"/>
+      <c r="E35" s="21"/>
       <c r="F35" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -5762,30 +5759,30 @@
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="E8:F8"/>
   </mergeCells>
-  <conditionalFormatting sqref="F11:F35">
-    <cfRule type="expression" dxfId="33" priority="4">
-      <formula>$F11="Fail"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="32" priority="5">
-      <formula>$F11="Pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="expression" dxfId="31" priority="2">
-      <formula>$E$8="Pass"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="3">
-      <formula>$E$8="Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A11:E35">
-    <cfRule type="expression" dxfId="29" priority="7">
+    <cfRule type="expression" dxfId="11" priority="7">
       <formula>AND($B11&lt;&gt;$B10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B35">
-    <cfRule type="expression" dxfId="28" priority="6">
+    <cfRule type="expression" dxfId="10" priority="6">
       <formula>AND($B11&lt;&gt;$B10)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="expression" dxfId="9" priority="2">
+      <formula>$E$8="Pass"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="3">
+      <formula>$E$8="Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11:F35">
+    <cfRule type="expression" dxfId="7" priority="4">
+      <formula>$F11="Fail"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="5">
+      <formula>$F11="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -5828,14 +5825,14 @@
       <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="26"/>
+      <c r="A2" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -5851,13 +5848,13 @@
       <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" s="27" t="s">
+      <c r="A5" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="26"/>
+      <c r="B5" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="24"/>
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
@@ -5871,13 +5868,13 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="C6" s="26"/>
+      <c r="A6" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="24"/>
       <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
@@ -5891,9 +5888,9 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="18"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="26"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="24"/>
       <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
@@ -5907,18 +5904,18 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="18"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="26"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="24"/>
       <c r="D8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="28" t="str">
+      <c r="E8" s="26" t="str">
         <f>IF(E7&gt;0, "Fail",
     IF(E5&gt;0, "Not Executed", "Pass"))</f>
         <v>Not Executed</v>
       </c>
-      <c r="F8" s="28"/>
+      <c r="F8" s="26"/>
     </row>
     <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -5926,7 +5923,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>6</v>
@@ -5947,7 +5944,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>19</v>
@@ -5957,7 +5954,7 @@
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -5966,17 +5963,17 @@
         <v>2</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C12" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>27</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -5985,17 +5982,17 @@
         <v>3</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C13" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>80</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>81</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="78" x14ac:dyDescent="0.35">
@@ -6004,17 +6001,17 @@
         <v>4</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -6023,17 +6020,17 @@
         <v>5</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C15" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="E15" s="19"/>
+      <c r="E15" s="18"/>
       <c r="F15" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="52" x14ac:dyDescent="0.35">
@@ -6042,17 +6039,17 @@
         <v>6</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="52" x14ac:dyDescent="0.35">
@@ -6061,17 +6058,17 @@
         <v>7</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -6083,30 +6080,30 @@
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="E8:F8"/>
   </mergeCells>
-  <conditionalFormatting sqref="F11:F17">
-    <cfRule type="expression" dxfId="16" priority="5">
-      <formula>$F11="Fail"</formula>
+  <conditionalFormatting sqref="A11:E17">
+    <cfRule type="expression" dxfId="5" priority="20">
+      <formula>AND($B11&lt;&gt;$B10)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="4">
-      <formula>$F11="Pass"</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:B17">
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>AND($B11&lt;&gt;$B10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="expression" dxfId="14" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>$E$8="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>$E$8="Fail"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:B17">
-    <cfRule type="expression" dxfId="12" priority="6">
-      <formula>AND($B11&lt;&gt;$B10)</formula>
+  <conditionalFormatting sqref="F11:F17">
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>$F11="Pass"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11:E17">
-    <cfRule type="expression" dxfId="11" priority="20">
-      <formula>AND($B11&lt;&gt;$B10)</formula>
+    <cfRule type="expression" dxfId="0" priority="5">
+      <formula>$F11="Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
